--- a/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -719,25 +719,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19500</v>
+        <v>19000</v>
       </c>
       <c r="E8" s="3">
-        <v>14300</v>
+        <v>13900</v>
       </c>
       <c r="F8" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="G8" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="H8" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="I8" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K8" s="3">
         <v>1400</v>
@@ -748,25 +748,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="E9" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="F9" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G9" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="H9" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I9" s="3">
         <v>2000</v>
       </c>
       <c r="J9" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K9" s="3">
         <v>1600</v>
@@ -777,19 +777,19 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="E10" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="F10" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H10" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I10" s="3">
         <v>1500</v>
@@ -945,25 +945,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18100</v>
+        <v>17600</v>
       </c>
       <c r="E17" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="F17" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="G17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H17" s="3">
         <v>6200</v>
       </c>
-      <c r="H17" s="3">
-        <v>6400</v>
-      </c>
       <c r="I17" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J17" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="K17" s="3">
         <v>11200</v>
@@ -977,22 +977,22 @@
         <v>1400</v>
       </c>
       <c r="E18" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F18" s="3">
         <v>1800</v>
       </c>
       <c r="G18" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H18" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
-        <v>-15000</v>
+        <v>-14600</v>
       </c>
       <c r="K18" s="3">
         <v>-9800</v>
@@ -1048,13 +1048,13 @@
         <v>1200</v>
       </c>
       <c r="E21" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F21" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="G21" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H21" s="3">
         <v>1100</v>
@@ -1063,7 +1063,7 @@
         <v>-200</v>
       </c>
       <c r="J21" s="3">
-        <v>-14800</v>
+        <v>-14400</v>
       </c>
       <c r="K21" s="3">
         <v>-10000</v>
@@ -1103,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E23" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F23" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G23" s="3">
         <v>2400</v>
@@ -1121,7 +1121,7 @@
         <v>-300</v>
       </c>
       <c r="J23" s="3">
-        <v>-15000</v>
+        <v>-14500</v>
       </c>
       <c r="K23" s="3">
         <v>-10200</v>
@@ -1138,7 +1138,7 @@
         <v>800</v>
       </c>
       <c r="F24" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>-800</v>
@@ -1193,13 +1193,13 @@
         <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F26" s="3">
         <v>1200</v>
       </c>
       <c r="G26" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="H26" s="3">
         <v>600</v>
@@ -1208,7 +1208,7 @@
         <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-15000</v>
+        <v>-14500</v>
       </c>
       <c r="K26" s="3">
         <v>-10200</v>
@@ -1222,13 +1222,13 @@
         <v>-500</v>
       </c>
       <c r="E27" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F27" s="3">
         <v>1000</v>
       </c>
       <c r="G27" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H27" s="3">
         <v>500</v>
@@ -1237,7 +1237,7 @@
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-15000</v>
+        <v>-14500</v>
       </c>
       <c r="K27" s="3">
         <v>-10200</v>
@@ -1396,13 +1396,13 @@
         <v>-500</v>
       </c>
       <c r="E33" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F33" s="3">
         <v>1000</v>
       </c>
       <c r="G33" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H33" s="3">
         <v>500</v>
@@ -1411,7 +1411,7 @@
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-15000</v>
+        <v>-14500</v>
       </c>
       <c r="K33" s="3">
         <v>-10200</v>
@@ -1454,13 +1454,13 @@
         <v>-500</v>
       </c>
       <c r="E35" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F35" s="3">
         <v>1000</v>
       </c>
       <c r="G35" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H35" s="3">
         <v>500</v>
@@ -1469,7 +1469,7 @@
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-15000</v>
+        <v>-14500</v>
       </c>
       <c r="K35" s="3">
         <v>-10200</v>
@@ -1540,25 +1540,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>66200</v>
+        <v>64300</v>
       </c>
       <c r="E41" s="3">
-        <v>63600</v>
+        <v>61800</v>
       </c>
       <c r="F41" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="G41" s="3">
-        <v>12000</v>
+        <v>11700</v>
       </c>
       <c r="H41" s="3">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="I41" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J41" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="K41" s="3">
         <v>8700</v>
@@ -1598,22 +1598,22 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="E43" s="3">
-        <v>13300</v>
+        <v>12900</v>
       </c>
       <c r="F43" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G43" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="H43" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="I43" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J43" s="3">
         <v>2600</v>
@@ -1627,25 +1627,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>15100</v>
+        <v>14700</v>
       </c>
       <c r="E44" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="F44" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G44" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="H44" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I44" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J44" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K44" s="3">
         <v>1500</v>
@@ -1668,10 +1668,10 @@
         <v>1000</v>
       </c>
       <c r="H45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="I45" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -1685,25 +1685,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>98800</v>
+        <v>95900</v>
       </c>
       <c r="E46" s="3">
-        <v>90800</v>
+        <v>88200</v>
       </c>
       <c r="F46" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="G46" s="3">
-        <v>24300</v>
+        <v>23600</v>
       </c>
       <c r="H46" s="3">
-        <v>25400</v>
+        <v>24700</v>
       </c>
       <c r="I46" s="3">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="J46" s="3">
-        <v>10700</v>
+        <v>10400</v>
       </c>
       <c r="K46" s="3">
         <v>13400</v>
@@ -1717,10 +1717,10 @@
         <v>1100</v>
       </c>
       <c r="E47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="3">
         <v>1000</v>
@@ -1743,25 +1743,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>26100</v>
+        <v>25400</v>
       </c>
       <c r="E48" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="F48" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="G48" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="H48" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="I48" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="J48" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="K48" s="3">
         <v>10200</v>
@@ -1772,25 +1772,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>80700</v>
+        <v>78400</v>
       </c>
       <c r="E49" s="3">
-        <v>71800</v>
+        <v>69700</v>
       </c>
       <c r="F49" s="3">
-        <v>60200</v>
+        <v>58500</v>
       </c>
       <c r="G49" s="3">
-        <v>60200</v>
+        <v>58500</v>
       </c>
       <c r="H49" s="3">
-        <v>60200</v>
+        <v>58500</v>
       </c>
       <c r="I49" s="3">
-        <v>53200</v>
+        <v>51700</v>
       </c>
       <c r="J49" s="3">
-        <v>53200</v>
+        <v>51700</v>
       </c>
       <c r="K49" s="3">
         <v>53200</v>
@@ -1917,25 +1917,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>207600</v>
+        <v>201700</v>
       </c>
       <c r="E54" s="3">
-        <v>186400</v>
+        <v>181000</v>
       </c>
       <c r="F54" s="3">
-        <v>108600</v>
+        <v>105500</v>
       </c>
       <c r="G54" s="3">
-        <v>103300</v>
+        <v>100400</v>
       </c>
       <c r="H54" s="3">
-        <v>101600</v>
+        <v>98700</v>
       </c>
       <c r="I54" s="3">
-        <v>81700</v>
+        <v>79300</v>
       </c>
       <c r="J54" s="3">
-        <v>76200</v>
+        <v>74000</v>
       </c>
       <c r="K54" s="3">
         <v>89400</v>
@@ -1972,25 +1972,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>34600</v>
+        <v>33600</v>
       </c>
       <c r="E57" s="3">
-        <v>24600</v>
+        <v>23900</v>
       </c>
       <c r="F57" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="G57" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="H57" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="I57" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J57" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K57" s="3">
         <v>2800</v>
@@ -2001,25 +2001,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17400</v>
+        <v>16900</v>
       </c>
       <c r="E58" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
       </c>
       <c r="H58" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I58" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J58" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K58" s="3">
         <v>4400</v>
@@ -2045,7 +2045,7 @@
         <v>45</v>
       </c>
       <c r="I59" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>45</v>
@@ -2059,25 +2059,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>52100</v>
+        <v>50600</v>
       </c>
       <c r="E60" s="3">
-        <v>28700</v>
+        <v>27900</v>
       </c>
       <c r="F60" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="G60" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="H60" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="I60" s="3">
-        <v>12600</v>
+        <v>12300</v>
       </c>
       <c r="J60" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="K60" s="3">
         <v>7200</v>
@@ -2088,10 +2088,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7800</v>
+        <v>7500</v>
       </c>
       <c r="E61" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="F61" s="3">
         <v>1200</v>
@@ -2100,10 +2100,10 @@
         <v>1300</v>
       </c>
       <c r="H61" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>800</v>
@@ -2117,10 +2117,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E62" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F62" s="3">
         <v>1600</v>
@@ -2233,25 +2233,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>71500</v>
+        <v>69400</v>
       </c>
       <c r="E66" s="3">
-        <v>51300</v>
+        <v>49800</v>
       </c>
       <c r="F66" s="3">
-        <v>19700</v>
+        <v>19100</v>
       </c>
       <c r="G66" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="H66" s="3">
-        <v>18100</v>
+        <v>17600</v>
       </c>
       <c r="I66" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="J66" s="3">
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="K66" s="3">
         <v>8300</v>
@@ -2391,25 +2391,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-54500</v>
+        <v>-52900</v>
       </c>
       <c r="E72" s="3">
-        <v>-53600</v>
+        <v>-52000</v>
       </c>
       <c r="F72" s="3">
-        <v>-55500</v>
+        <v>-53900</v>
       </c>
       <c r="G72" s="3">
-        <v>-56300</v>
+        <v>-54700</v>
       </c>
       <c r="H72" s="3">
-        <v>-59200</v>
+        <v>-57500</v>
       </c>
       <c r="I72" s="3">
-        <v>-62000</v>
+        <v>-60200</v>
       </c>
       <c r="J72" s="3">
-        <v>-61600</v>
+        <v>-59900</v>
       </c>
       <c r="K72" s="3">
         <v>-46700</v>
@@ -2507,25 +2507,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>136200</v>
+        <v>132300</v>
       </c>
       <c r="E76" s="3">
-        <v>135100</v>
+        <v>131200</v>
       </c>
       <c r="F76" s="3">
-        <v>88900</v>
+        <v>86300</v>
       </c>
       <c r="G76" s="3">
-        <v>86900</v>
+        <v>84400</v>
       </c>
       <c r="H76" s="3">
-        <v>83500</v>
+        <v>81100</v>
       </c>
       <c r="I76" s="3">
-        <v>68000</v>
+        <v>66000</v>
       </c>
       <c r="J76" s="3">
-        <v>67200</v>
+        <v>65200</v>
       </c>
       <c r="K76" s="3">
         <v>81100</v>
@@ -2602,13 +2602,13 @@
         <v>-500</v>
       </c>
       <c r="E81" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F81" s="3">
         <v>1000</v>
       </c>
       <c r="G81" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H81" s="3">
         <v>500</v>
@@ -2617,7 +2617,7 @@
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-15000</v>
+        <v>-14500</v>
       </c>
       <c r="K81" s="3">
         <v>-10200</v>
@@ -2824,13 +2824,13 @@
         <v>2400</v>
       </c>
       <c r="G89" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H89" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I89" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J89" s="3">
         <v>-1200</v>
@@ -2857,19 +2857,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="F91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="G91" s="3">
         <v>-1500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="I91" s="3">
         <v>-1700</v>
@@ -2944,10 +2944,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="E94" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="F94" s="3">
         <v>-1800</v>
@@ -2956,10 +2956,10 @@
         <v>-2000</v>
       </c>
       <c r="H94" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I94" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="J94" s="3">
         <v>-1900</v>
@@ -3102,22 +3102,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="E100" s="3">
-        <v>53900</v>
+        <v>52400</v>
       </c>
       <c r="F100" s="3">
         <v>300</v>
       </c>
       <c r="G100" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="H100" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="I100" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
@@ -3131,7 +3131,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -3160,25 +3160,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E102" s="3">
-        <v>50500</v>
+        <v>49100</v>
       </c>
       <c r="F102" s="3">
         <v>900</v>
       </c>
       <c r="G102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="J102" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>12400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-3200</v>
       </c>
       <c r="K102" s="3">
         <v>-7500</v>

--- a/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19000</v>
+        <v>23200</v>
       </c>
       <c r="E8" s="3">
-        <v>13900</v>
+        <v>17900</v>
       </c>
       <c r="F8" s="3">
-        <v>10200</v>
+        <v>13100</v>
       </c>
       <c r="G8" s="3">
-        <v>8300</v>
+        <v>9600</v>
       </c>
       <c r="H8" s="3">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="I8" s="3">
-        <v>3400</v>
+        <v>6500</v>
       </c>
       <c r="J8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11400</v>
+        <v>12500</v>
       </c>
       <c r="E9" s="3">
-        <v>8000</v>
+        <v>10800</v>
       </c>
       <c r="F9" s="3">
-        <v>5400</v>
+        <v>7500</v>
       </c>
       <c r="G9" s="3">
-        <v>4200</v>
+        <v>5100</v>
       </c>
       <c r="H9" s="3">
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="I9" s="3">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="J9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K9" s="3">
         <v>800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7600</v>
+        <v>10600</v>
       </c>
       <c r="E10" s="3">
-        <v>5900</v>
+        <v>7200</v>
       </c>
       <c r="F10" s="3">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="G10" s="3">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="H10" s="3">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="I10" s="3">
-        <v>1500</v>
+        <v>3100</v>
       </c>
       <c r="J10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,10 +853,13 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -929,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>17600</v>
+        <v>20500</v>
       </c>
       <c r="E17" s="3">
+        <v>16600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>15900</v>
+      </c>
+      <c r="L17" s="3">
         <v>11200</v>
       </c>
-      <c r="F17" s="3">
-        <v>8400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J17" s="3">
-        <v>15900</v>
-      </c>
-      <c r="K17" s="3">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1400</v>
+        <v>2600</v>
       </c>
       <c r="E18" s="3">
-        <v>2700</v>
+        <v>1300</v>
       </c>
       <c r="F18" s="3">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="G18" s="3">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="H18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1010,66 +1042,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-800</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="E21" s="3">
-        <v>2800</v>
+        <v>1100</v>
       </c>
       <c r="F21" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="G21" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="H21" s="3">
-        <v>1100</v>
+        <v>2500</v>
       </c>
       <c r="I21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-14400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1097,66 +1136,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
-        <v>2600</v>
-      </c>
       <c r="F23" s="3">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="G23" s="3">
-        <v>2400</v>
+        <v>1600</v>
       </c>
       <c r="H23" s="3">
-        <v>700</v>
+        <v>2200</v>
       </c>
       <c r="I23" s="3">
+        <v>600</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>400</v>
+      </c>
+      <c r="F24" s="3">
+        <v>700</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
-        <v>800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-800</v>
-      </c>
       <c r="H24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1184,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
-        <v>1800</v>
-      </c>
       <c r="F26" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="G26" s="3">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="H26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-14500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
-        <v>1900</v>
-      </c>
       <c r="F27" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G27" s="3">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="H27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1271,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1300,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1329,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1358,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
-        <v>1900</v>
-      </c>
       <c r="F33" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G33" s="3">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="H33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1445,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
-        <v>1900</v>
-      </c>
       <c r="F35" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G35" s="3">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="H35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1521,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1534,45 +1619,49 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>64300</v>
+        <v>57000</v>
       </c>
       <c r="E41" s="3">
-        <v>61800</v>
+        <v>60700</v>
       </c>
       <c r="F41" s="3">
-        <v>12500</v>
+        <v>58400</v>
       </c>
       <c r="G41" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="H41" s="3">
-        <v>14700</v>
+        <v>11000</v>
       </c>
       <c r="I41" s="3">
-        <v>2600</v>
+        <v>13900</v>
       </c>
       <c r="J41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E42" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
@@ -1587,137 +1676,152 @@
         <v>100</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>15500</v>
+        <v>14700</v>
       </c>
       <c r="E43" s="3">
-        <v>12900</v>
+        <v>14700</v>
       </c>
       <c r="F43" s="3">
-        <v>6500</v>
+        <v>12200</v>
       </c>
       <c r="G43" s="3">
-        <v>5000</v>
+        <v>6200</v>
       </c>
       <c r="H43" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="I43" s="3">
         <v>4700</v>
       </c>
       <c r="J43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>14700</v>
+        <v>18100</v>
       </c>
       <c r="E44" s="3">
-        <v>12300</v>
+        <v>13800</v>
       </c>
       <c r="F44" s="3">
-        <v>5000</v>
+        <v>11600</v>
       </c>
       <c r="G44" s="3">
-        <v>5900</v>
+        <v>4800</v>
       </c>
       <c r="H44" s="3">
-        <v>3400</v>
+        <v>5500</v>
       </c>
       <c r="I44" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K44" s="3">
         <v>2200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1300</v>
+        <v>7700</v>
       </c>
       <c r="E45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
-        <v>1300</v>
-      </c>
       <c r="G45" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
-        <v>3300</v>
-      </c>
       <c r="J45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>95900</v>
+        <v>97700</v>
       </c>
       <c r="E46" s="3">
-        <v>88200</v>
+        <v>90600</v>
       </c>
       <c r="F46" s="3">
-        <v>25500</v>
+        <v>83300</v>
       </c>
       <c r="G46" s="3">
-        <v>23600</v>
+        <v>24100</v>
       </c>
       <c r="H46" s="3">
-        <v>24700</v>
+        <v>22300</v>
       </c>
       <c r="I46" s="3">
-        <v>14100</v>
+        <v>23300</v>
       </c>
       <c r="J46" s="3">
+        <v>13400</v>
+      </c>
+      <c r="K46" s="3">
         <v>10400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1100</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1000</v>
       </c>
       <c r="F47" s="3">
         <v>1000</v>
@@ -1726,7 +1830,7 @@
         <v>1000</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -1735,68 +1839,77 @@
         <v>200</v>
       </c>
       <c r="K47" s="3">
+        <v>200</v>
+      </c>
+      <c r="L47" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="E48" s="3">
-        <v>21200</v>
+        <v>24000</v>
       </c>
       <c r="F48" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="G48" s="3">
-        <v>16400</v>
+        <v>18500</v>
       </c>
       <c r="H48" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="I48" s="3">
-        <v>13300</v>
+        <v>14500</v>
       </c>
       <c r="J48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K48" s="3">
         <v>11800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>78400</v>
+        <v>75000</v>
       </c>
       <c r="E49" s="3">
-        <v>69700</v>
+        <v>74000</v>
       </c>
       <c r="F49" s="3">
-        <v>58500</v>
+        <v>65900</v>
       </c>
       <c r="G49" s="3">
-        <v>58500</v>
+        <v>55300</v>
       </c>
       <c r="H49" s="3">
-        <v>58500</v>
+        <v>55300</v>
       </c>
       <c r="I49" s="3">
+        <v>55300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>48800</v>
+      </c>
+      <c r="K49" s="3">
         <v>51700</v>
       </c>
-      <c r="J49" s="3">
-        <v>51700</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>53200</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1824,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1853,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -1862,16 +1981,16 @@
         <v>900</v>
       </c>
       <c r="E52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>45</v>
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
+        <v>800</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>45</v>
@@ -1882,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>201700</v>
+        <v>199500</v>
       </c>
       <c r="E54" s="3">
-        <v>181000</v>
+        <v>190500</v>
       </c>
       <c r="F54" s="3">
-        <v>105500</v>
+        <v>171000</v>
       </c>
       <c r="G54" s="3">
-        <v>100400</v>
+        <v>99700</v>
       </c>
       <c r="H54" s="3">
-        <v>98700</v>
+        <v>94800</v>
       </c>
       <c r="I54" s="3">
-        <v>79300</v>
+        <v>93300</v>
       </c>
       <c r="J54" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K54" s="3">
         <v>74000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,77 +2095,84 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33600</v>
+        <v>30700</v>
       </c>
       <c r="E57" s="3">
-        <v>23900</v>
+        <v>31800</v>
       </c>
       <c r="F57" s="3">
-        <v>10000</v>
+        <v>22600</v>
       </c>
       <c r="G57" s="3">
-        <v>8400</v>
+        <v>9400</v>
       </c>
       <c r="H57" s="3">
-        <v>6300</v>
+        <v>7900</v>
       </c>
       <c r="I57" s="3">
-        <v>4600</v>
+        <v>6000</v>
       </c>
       <c r="J57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>16900</v>
+        <v>21000</v>
       </c>
       <c r="E58" s="3">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="F58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
-        <v>800</v>
-      </c>
       <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>45</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>45</v>
@@ -2044,95 +2180,104 @@
       <c r="H59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I59" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3100</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>50600</v>
+        <v>56300</v>
       </c>
       <c r="E60" s="3">
-        <v>27900</v>
+        <v>47800</v>
       </c>
       <c r="F60" s="3">
-        <v>10700</v>
+        <v>26400</v>
       </c>
       <c r="G60" s="3">
-        <v>9200</v>
+        <v>10200</v>
       </c>
       <c r="H60" s="3">
-        <v>10800</v>
+        <v>8700</v>
       </c>
       <c r="I60" s="3">
-        <v>12300</v>
+        <v>10200</v>
       </c>
       <c r="J60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7500</v>
+        <v>9700</v>
       </c>
       <c r="E61" s="3">
-        <v>12100</v>
+        <v>7100</v>
       </c>
       <c r="F61" s="3">
-        <v>1200</v>
+        <v>11500</v>
       </c>
       <c r="G61" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="H61" s="3">
         <v>1200</v>
       </c>
       <c r="I61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5100</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="F62" s="3">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -2140,8 +2285,11 @@
       <c r="K62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2198,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69400</v>
+        <v>69300</v>
       </c>
       <c r="E66" s="3">
-        <v>49800</v>
+        <v>65600</v>
       </c>
       <c r="F66" s="3">
-        <v>19100</v>
+        <v>47100</v>
       </c>
       <c r="G66" s="3">
-        <v>15900</v>
+        <v>18100</v>
       </c>
       <c r="H66" s="3">
-        <v>17600</v>
+        <v>15000</v>
       </c>
       <c r="I66" s="3">
-        <v>13300</v>
+        <v>16600</v>
       </c>
       <c r="J66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-52900</v>
+        <v>-51000</v>
       </c>
       <c r="E72" s="3">
-        <v>-52000</v>
+        <v>-50000</v>
       </c>
       <c r="F72" s="3">
-        <v>-53900</v>
+        <v>-49100</v>
       </c>
       <c r="G72" s="3">
-        <v>-54700</v>
+        <v>-50900</v>
       </c>
       <c r="H72" s="3">
-        <v>-57500</v>
+        <v>-51700</v>
       </c>
       <c r="I72" s="3">
-        <v>-60200</v>
+        <v>-54300</v>
       </c>
       <c r="J72" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-59900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-46700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>132300</v>
+        <v>130200</v>
       </c>
       <c r="E76" s="3">
-        <v>131200</v>
+        <v>125000</v>
       </c>
       <c r="F76" s="3">
-        <v>86300</v>
+        <v>124000</v>
       </c>
       <c r="G76" s="3">
-        <v>84400</v>
+        <v>81600</v>
       </c>
       <c r="H76" s="3">
+        <v>79800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>76600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K76" s="3">
+        <v>65200</v>
+      </c>
+      <c r="L76" s="3">
         <v>81100</v>
       </c>
-      <c r="I76" s="3">
-        <v>66000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>65200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>81100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
-        <v>1900</v>
-      </c>
       <c r="F81" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="G81" s="3">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="H81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>600</v>
-      </c>
       <c r="G83" s="3">
+        <v>500</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="E89" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
-        <v>2400</v>
-      </c>
       <c r="G89" s="3">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="H89" s="3">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="I89" s="3">
-        <v>-1200</v>
+        <v>1800</v>
       </c>
       <c r="J89" s="3">
         <v>-1200</v>
       </c>
       <c r="K89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1500</v>
       </c>
       <c r="H91" s="3">
         <v>-1400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1700</v>
+        <v>-1400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6500</v>
+        <v>-7300</v>
       </c>
       <c r="E94" s="3">
-        <v>-4000</v>
+        <v>-6200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1800</v>
+        <v>-3800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2000</v>
+        <v>-1700</v>
       </c>
       <c r="H94" s="3">
-        <v>1700</v>
+        <v>-1900</v>
       </c>
       <c r="I94" s="3">
-        <v>-4900</v>
+        <v>1600</v>
       </c>
       <c r="J94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,49 +3338,55 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>6600</v>
+        <v>3000</v>
       </c>
       <c r="E100" s="3">
-        <v>52400</v>
+        <v>6200</v>
       </c>
       <c r="F100" s="3">
+        <v>49500</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
-        <v>-4000</v>
-      </c>
       <c r="H100" s="3">
-        <v>8400</v>
+        <v>-3800</v>
       </c>
       <c r="I100" s="3">
-        <v>3400</v>
+        <v>7900</v>
       </c>
       <c r="J100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3149,38 +3397,44 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2700</v>
+        <v>-3700</v>
       </c>
       <c r="E102" s="3">
-        <v>49100</v>
+        <v>2500</v>
       </c>
       <c r="F102" s="3">
-        <v>900</v>
+        <v>46400</v>
       </c>
       <c r="G102" s="3">
-        <v>-3000</v>
+        <v>800</v>
       </c>
       <c r="H102" s="3">
-        <v>12100</v>
+        <v>-2900</v>
       </c>
       <c r="I102" s="3">
-        <v>-2700</v>
+        <v>11400</v>
       </c>
       <c r="J102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,181 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23200</v>
+        <v>29200</v>
       </c>
       <c r="E8" s="3">
-        <v>17900</v>
+        <v>26700</v>
       </c>
       <c r="F8" s="3">
-        <v>13100</v>
+        <v>24400</v>
       </c>
       <c r="G8" s="3">
-        <v>9600</v>
+        <v>18900</v>
       </c>
       <c r="H8" s="3">
-        <v>7900</v>
+        <v>13800</v>
       </c>
       <c r="I8" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K8" s="3">
         <v>6500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12500</v>
+        <v>16500</v>
       </c>
       <c r="E9" s="3">
-        <v>10800</v>
+        <v>15700</v>
       </c>
       <c r="F9" s="3">
-        <v>7500</v>
+        <v>13200</v>
       </c>
       <c r="G9" s="3">
-        <v>5100</v>
+        <v>11300</v>
       </c>
       <c r="H9" s="3">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="I9" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10600</v>
+        <v>12700</v>
       </c>
       <c r="E10" s="3">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="F10" s="3">
-        <v>5600</v>
+        <v>11200</v>
       </c>
       <c r="G10" s="3">
-        <v>4500</v>
+        <v>7600</v>
       </c>
       <c r="H10" s="3">
-        <v>3900</v>
+        <v>5900</v>
       </c>
       <c r="I10" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,7 +863,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -856,10 +884,16 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,40 +924,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20500</v>
+        <v>23700</v>
       </c>
       <c r="E17" s="3">
-        <v>16600</v>
+        <v>20600</v>
       </c>
       <c r="F17" s="3">
-        <v>10600</v>
+        <v>21600</v>
       </c>
       <c r="G17" s="3">
-        <v>7900</v>
+        <v>17500</v>
       </c>
       <c r="H17" s="3">
-        <v>5700</v>
+        <v>11100</v>
       </c>
       <c r="I17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K17" s="3">
         <v>5800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>15900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2600</v>
+        <v>5500</v>
       </c>
       <c r="E18" s="3">
-        <v>1300</v>
+        <v>6100</v>
       </c>
       <c r="F18" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G18" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="H18" s="3">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="I18" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-14600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1043,72 +1109,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-1900</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
-        <v>-700</v>
+        <v>-200</v>
       </c>
       <c r="F20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1700</v>
+        <v>7200</v>
       </c>
       <c r="E21" s="3">
-        <v>1100</v>
+        <v>6700</v>
       </c>
       <c r="F21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J21" s="3">
         <v>2700</v>
       </c>
-      <c r="G21" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-14400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1139,72 +1219,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>700</v>
+        <v>6500</v>
       </c>
       <c r="E23" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>800</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1600</v>
-      </c>
       <c r="H23" s="3">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="I23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-14500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E24" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="F24" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="G24" s="3">
         <v>500</v>
       </c>
       <c r="H24" s="3">
-        <v>-700</v>
+        <v>800</v>
       </c>
       <c r="I24" s="3">
+        <v>500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1100</v>
-      </c>
       <c r="H26" s="3">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="I26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-14500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>900</v>
-      </c>
       <c r="H27" s="3">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="I27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-14500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1427,72 +1561,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>1900</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>800</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>900</v>
-      </c>
       <c r="H33" s="3">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="I33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-14500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>900</v>
-      </c>
       <c r="H35" s="3">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="I35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-14500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1620,40 +1792,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>57000</v>
+        <v>67800</v>
       </c>
       <c r="E41" s="3">
-        <v>60700</v>
+        <v>64300</v>
       </c>
       <c r="F41" s="3">
-        <v>58400</v>
+        <v>60100</v>
       </c>
       <c r="G41" s="3">
-        <v>11800</v>
+        <v>64000</v>
       </c>
       <c r="H41" s="3">
-        <v>11000</v>
+        <v>61500</v>
       </c>
       <c r="I41" s="3">
+        <v>12500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K41" s="3">
         <v>13900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1667,10 +1847,10 @@
         <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
@@ -1679,237 +1859,285 @@
         <v>100</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L42" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>14700</v>
+        <v>22400</v>
       </c>
       <c r="E43" s="3">
-        <v>14700</v>
+        <v>15200</v>
       </c>
       <c r="F43" s="3">
-        <v>12200</v>
+        <v>15500</v>
       </c>
       <c r="G43" s="3">
-        <v>6200</v>
+        <v>15500</v>
       </c>
       <c r="H43" s="3">
+        <v>12800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4700</v>
       </c>
-      <c r="I43" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>18100</v>
+        <v>27800</v>
       </c>
       <c r="E44" s="3">
-        <v>13800</v>
+        <v>25900</v>
       </c>
       <c r="F44" s="3">
-        <v>11600</v>
+        <v>19100</v>
       </c>
       <c r="G44" s="3">
-        <v>4800</v>
+        <v>14600</v>
       </c>
       <c r="H44" s="3">
-        <v>5500</v>
+        <v>12300</v>
       </c>
       <c r="I44" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>7700</v>
+        <v>9800</v>
       </c>
       <c r="E45" s="3">
-        <v>1200</v>
+        <v>9200</v>
       </c>
       <c r="F45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>900</v>
-      </c>
       <c r="I45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>97700</v>
+        <v>127800</v>
       </c>
       <c r="E46" s="3">
-        <v>90600</v>
+        <v>114600</v>
       </c>
       <c r="F46" s="3">
-        <v>83300</v>
+        <v>103000</v>
       </c>
       <c r="G46" s="3">
-        <v>24100</v>
+        <v>95500</v>
       </c>
       <c r="H46" s="3">
-        <v>22300</v>
+        <v>87800</v>
       </c>
       <c r="I46" s="3">
+        <v>25400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K46" s="3">
         <v>23300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>13400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>10400</v>
       </c>
       <c r="L46" s="3">
         <v>13400</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>10400</v>
+      </c>
+      <c r="N46" s="3">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E47" s="3">
+        <v>800</v>
+      </c>
+      <c r="F47" s="3">
+        <v>800</v>
+      </c>
+      <c r="G47" s="3">
         <v>1100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="H47" s="3">
-        <v>900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>200</v>
-      </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
       </c>
       <c r="L47" s="3">
+        <v>200</v>
+      </c>
+      <c r="M47" s="3">
+        <v>200</v>
+      </c>
+      <c r="N47" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>25100</v>
+        <v>28400</v>
       </c>
       <c r="E48" s="3">
-        <v>24000</v>
+        <v>27300</v>
       </c>
       <c r="F48" s="3">
-        <v>20100</v>
+        <v>26500</v>
       </c>
       <c r="G48" s="3">
-        <v>18500</v>
+        <v>25300</v>
       </c>
       <c r="H48" s="3">
-        <v>15500</v>
+        <v>21100</v>
       </c>
       <c r="I48" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K48" s="3">
         <v>14500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>12600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>75000</v>
+        <v>85400</v>
       </c>
       <c r="E49" s="3">
-        <v>74000</v>
+        <v>84000</v>
       </c>
       <c r="F49" s="3">
-        <v>65900</v>
+        <v>82200</v>
       </c>
       <c r="G49" s="3">
+        <v>78000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>69400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>58200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>58200</v>
+      </c>
+      <c r="K49" s="3">
         <v>55300</v>
       </c>
-      <c r="H49" s="3">
-        <v>55300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>55300</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>48800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>51700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>53200</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1972,31 +2206,37 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
-        <v>800</v>
-      </c>
-      <c r="F52" s="3">
-        <v>800</v>
-      </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H52" s="3">
-        <v>800</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>45</v>
+        <v>900</v>
+      </c>
+      <c r="I52" s="3">
+        <v>900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>900</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>45</v>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2282,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>199500</v>
+        <v>242900</v>
       </c>
       <c r="E54" s="3">
-        <v>190500</v>
+        <v>227800</v>
       </c>
       <c r="F54" s="3">
-        <v>171000</v>
+        <v>213300</v>
       </c>
       <c r="G54" s="3">
-        <v>99700</v>
+        <v>200800</v>
       </c>
       <c r="H54" s="3">
-        <v>94800</v>
+        <v>180200</v>
       </c>
       <c r="I54" s="3">
+        <v>105000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K54" s="3">
         <v>93300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>74900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>74000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2356,238 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30700</v>
+        <v>33500</v>
       </c>
       <c r="E57" s="3">
-        <v>31800</v>
+        <v>35600</v>
       </c>
       <c r="F57" s="3">
-        <v>22600</v>
+        <v>32300</v>
       </c>
       <c r="G57" s="3">
-        <v>9400</v>
+        <v>33500</v>
       </c>
       <c r="H57" s="3">
-        <v>7900</v>
+        <v>23800</v>
       </c>
       <c r="I57" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K57" s="3">
         <v>6000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>21000</v>
+        <v>28800</v>
       </c>
       <c r="E58" s="3">
-        <v>16000</v>
+        <v>28000</v>
       </c>
       <c r="F58" s="3">
-        <v>3800</v>
+        <v>22700</v>
       </c>
       <c r="G58" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
-        <v>700</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
+        <v>800</v>
+      </c>
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4600</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>45</v>
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4800</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>45</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J59" s="3">
-        <v>3100</v>
+      <c r="J59" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L59" s="3" t="s">
+      <c r="L59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M59" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56300</v>
+        <v>68300</v>
       </c>
       <c r="E60" s="3">
-        <v>47800</v>
+        <v>68500</v>
       </c>
       <c r="F60" s="3">
-        <v>26400</v>
+        <v>59300</v>
       </c>
       <c r="G60" s="3">
+        <v>50300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>27800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K60" s="3">
         <v>10200</v>
       </c>
-      <c r="H60" s="3">
-        <v>8700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>10200</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9700</v>
+        <v>20700</v>
       </c>
       <c r="E61" s="3">
-        <v>7100</v>
+        <v>10800</v>
       </c>
       <c r="F61" s="3">
-        <v>11500</v>
+        <v>10200</v>
       </c>
       <c r="G61" s="3">
-        <v>1100</v>
+        <v>7500</v>
       </c>
       <c r="H61" s="3">
-        <v>1200</v>
+        <v>12100</v>
       </c>
       <c r="I61" s="3">
         <v>1200</v>
       </c>
       <c r="J61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
-        <v>4800</v>
-      </c>
       <c r="F62" s="3">
-        <v>4000</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>1500</v>
+        <v>5100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>100</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2694,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>69300</v>
+        <v>96200</v>
       </c>
       <c r="E66" s="3">
-        <v>65600</v>
+        <v>86400</v>
       </c>
       <c r="F66" s="3">
-        <v>47100</v>
+        <v>76100</v>
       </c>
       <c r="G66" s="3">
-        <v>18100</v>
+        <v>69100</v>
       </c>
       <c r="H66" s="3">
-        <v>15000</v>
+        <v>49600</v>
       </c>
       <c r="I66" s="3">
+        <v>19100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K66" s="3">
         <v>16600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51000</v>
+        <v>-44900</v>
       </c>
       <c r="E72" s="3">
-        <v>-50000</v>
+        <v>-49700</v>
       </c>
       <c r="F72" s="3">
-        <v>-49100</v>
+        <v>-53800</v>
       </c>
       <c r="G72" s="3">
-        <v>-50900</v>
+        <v>-52700</v>
       </c>
       <c r="H72" s="3">
-        <v>-51700</v>
+        <v>-51800</v>
       </c>
       <c r="I72" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-54300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-56900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-59900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-46700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>130200</v>
+        <v>146700</v>
       </c>
       <c r="E76" s="3">
-        <v>125000</v>
+        <v>141400</v>
       </c>
       <c r="F76" s="3">
-        <v>124000</v>
+        <v>137200</v>
       </c>
       <c r="G76" s="3">
-        <v>81600</v>
+        <v>131700</v>
       </c>
       <c r="H76" s="3">
-        <v>79800</v>
+        <v>130600</v>
       </c>
       <c r="I76" s="3">
+        <v>86000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>84100</v>
+      </c>
+      <c r="K76" s="3">
         <v>76600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>62400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>65200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>900</v>
-      </c>
       <c r="H81" s="3">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="I81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-14500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3229,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>600</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3453,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
-        <v>2800</v>
+        <v>600</v>
       </c>
       <c r="F89" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>2700</v>
-      </c>
       <c r="I89" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3511,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2200</v>
+        <v>-1200</v>
       </c>
       <c r="E91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3621,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7300</v>
+        <v>-10100</v>
       </c>
       <c r="E94" s="3">
-        <v>-6200</v>
+        <v>-3000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3800</v>
+        <v>-7700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1700</v>
+        <v>-6500</v>
       </c>
       <c r="H94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,58 +3827,70 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3000</v>
+        <v>11500</v>
       </c>
       <c r="E100" s="3">
-        <v>6200</v>
+        <v>5700</v>
       </c>
       <c r="F100" s="3">
-        <v>49500</v>
+        <v>3200</v>
       </c>
       <c r="G100" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H100" s="3">
+        <v>52200</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K100" s="3">
         <v>7900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1100</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -3400,41 +3898,53 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3700</v>
+        <v>3800</v>
       </c>
       <c r="E102" s="3">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="F102" s="3">
-        <v>46400</v>
+        <v>-3900</v>
       </c>
       <c r="G102" s="3">
-        <v>800</v>
+        <v>2700</v>
       </c>
       <c r="H102" s="3">
-        <v>-2900</v>
+        <v>48900</v>
       </c>
       <c r="I102" s="3">
+        <v>900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K102" s="3">
         <v>11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-3100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
@@ -730,25 +730,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29200</v>
+        <v>27400</v>
       </c>
       <c r="E8" s="3">
-        <v>26700</v>
+        <v>25100</v>
       </c>
       <c r="F8" s="3">
-        <v>24400</v>
+        <v>23000</v>
       </c>
       <c r="G8" s="3">
-        <v>18900</v>
+        <v>17800</v>
       </c>
       <c r="H8" s="3">
-        <v>13800</v>
+        <v>13000</v>
       </c>
       <c r="I8" s="3">
-        <v>10100</v>
+        <v>9500</v>
       </c>
       <c r="J8" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="K8" s="3">
         <v>6500</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16500</v>
+        <v>15500</v>
       </c>
       <c r="E9" s="3">
-        <v>15700</v>
+        <v>14800</v>
       </c>
       <c r="F9" s="3">
-        <v>13200</v>
+        <v>12400</v>
       </c>
       <c r="G9" s="3">
-        <v>11300</v>
+        <v>10700</v>
       </c>
       <c r="H9" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="I9" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="J9" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K9" s="3">
         <v>3400</v>
@@ -806,25 +806,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12700</v>
+        <v>12000</v>
       </c>
       <c r="E10" s="3">
-        <v>11000</v>
+        <v>10300</v>
       </c>
       <c r="F10" s="3">
-        <v>11200</v>
+        <v>10500</v>
       </c>
       <c r="G10" s="3">
-        <v>7600</v>
+        <v>7100</v>
       </c>
       <c r="H10" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="I10" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J10" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="K10" s="3">
         <v>3100</v>
@@ -939,10 +939,10 @@
         <v>-600</v>
       </c>
       <c r="E14" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F14" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G14" s="3">
         <v>800</v>
@@ -1025,25 +1025,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>23700</v>
+        <v>22300</v>
       </c>
       <c r="E17" s="3">
-        <v>20600</v>
+        <v>19400</v>
       </c>
       <c r="F17" s="3">
-        <v>21600</v>
+        <v>20300</v>
       </c>
       <c r="G17" s="3">
-        <v>17500</v>
+        <v>16500</v>
       </c>
       <c r="H17" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="I17" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="J17" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="K17" s="3">
         <v>5800</v>
@@ -1063,25 +1063,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5500</v>
+        <v>5200</v>
       </c>
       <c r="E18" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="F18" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G18" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H18" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="I18" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J18" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="K18" s="3">
         <v>700</v>
@@ -1117,16 +1117,16 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
       </c>
       <c r="F20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="E21" s="3">
-        <v>6700</v>
+        <v>6300</v>
       </c>
       <c r="F21" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G21" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="H21" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="I21" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J21" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K21" s="3">
         <v>1000</v>
@@ -1231,25 +1231,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="E23" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="F23" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G23" s="3">
         <v>600</v>
       </c>
       <c r="H23" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I23" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J23" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K23" s="3">
         <v>600</v>
@@ -1269,25 +1269,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E24" s="3">
         <v>1400</v>
       </c>
       <c r="F24" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G24" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H24" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
@@ -1345,10 +1345,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="E26" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="F26" s="3">
         <v>-900</v>
@@ -1357,13 +1357,13 @@
         <v>200</v>
       </c>
       <c r="H26" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I26" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J26" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="K26" s="3">
         <v>600</v>
@@ -1383,10 +1383,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E27" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F27" s="3">
         <v>-900</v>
@@ -1395,13 +1395,13 @@
         <v>-500</v>
       </c>
       <c r="H27" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I27" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J27" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K27" s="3">
         <v>500</v>
@@ -1573,16 +1573,16 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
       </c>
       <c r="F32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -1611,10 +1611,10 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E33" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F33" s="3">
         <v>-900</v>
@@ -1623,13 +1623,13 @@
         <v>-500</v>
       </c>
       <c r="H33" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I33" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J33" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K33" s="3">
         <v>500</v>
@@ -1687,10 +1687,10 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E35" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F35" s="3">
         <v>-900</v>
@@ -1699,13 +1699,13 @@
         <v>-500</v>
       </c>
       <c r="H35" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I35" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J35" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K35" s="3">
         <v>500</v>
@@ -1800,25 +1800,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>67800</v>
+        <v>63700</v>
       </c>
       <c r="E41" s="3">
-        <v>64300</v>
+        <v>60400</v>
       </c>
       <c r="F41" s="3">
-        <v>60100</v>
+        <v>56500</v>
       </c>
       <c r="G41" s="3">
-        <v>64000</v>
+        <v>60200</v>
       </c>
       <c r="H41" s="3">
-        <v>61500</v>
+        <v>57900</v>
       </c>
       <c r="I41" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="J41" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="K41" s="3">
         <v>13900</v>
@@ -1847,10 +1847,10 @@
         <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H42" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I42" s="3">
         <v>100</v>
@@ -1876,25 +1876,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>22400</v>
+        <v>21000</v>
       </c>
       <c r="E43" s="3">
-        <v>15200</v>
+        <v>14300</v>
       </c>
       <c r="F43" s="3">
-        <v>15500</v>
+        <v>14600</v>
       </c>
       <c r="G43" s="3">
-        <v>15500</v>
+        <v>14500</v>
       </c>
       <c r="H43" s="3">
-        <v>12800</v>
+        <v>12100</v>
       </c>
       <c r="I43" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="J43" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="K43" s="3">
         <v>4700</v>
@@ -1914,25 +1914,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>27800</v>
+        <v>26100</v>
       </c>
       <c r="E44" s="3">
-        <v>25900</v>
+        <v>24300</v>
       </c>
       <c r="F44" s="3">
-        <v>19100</v>
+        <v>17900</v>
       </c>
       <c r="G44" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="H44" s="3">
-        <v>12300</v>
+        <v>11500</v>
       </c>
       <c r="I44" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="J44" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="K44" s="3">
         <v>3200</v>
@@ -1952,25 +1952,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="E45" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="F45" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="G45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H45" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I45" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J45" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K45" s="3">
         <v>1500</v>
@@ -1990,25 +1990,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>127800</v>
+        <v>120200</v>
       </c>
       <c r="E46" s="3">
-        <v>114600</v>
+        <v>107800</v>
       </c>
       <c r="F46" s="3">
-        <v>103000</v>
+        <v>96800</v>
       </c>
       <c r="G46" s="3">
-        <v>95500</v>
+        <v>89800</v>
       </c>
       <c r="H46" s="3">
-        <v>87800</v>
+        <v>82600</v>
       </c>
       <c r="I46" s="3">
-        <v>25400</v>
+        <v>23900</v>
       </c>
       <c r="J46" s="3">
-        <v>23500</v>
+        <v>22100</v>
       </c>
       <c r="K46" s="3">
         <v>23300</v>
@@ -2028,16 +2028,16 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H47" s="3">
         <v>1000</v>
@@ -2046,7 +2046,7 @@
         <v>1000</v>
       </c>
       <c r="J47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -2066,25 +2066,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>28400</v>
+        <v>26700</v>
       </c>
       <c r="E48" s="3">
-        <v>27300</v>
+        <v>25600</v>
       </c>
       <c r="F48" s="3">
-        <v>26500</v>
+        <v>24900</v>
       </c>
       <c r="G48" s="3">
-        <v>25300</v>
+        <v>23800</v>
       </c>
       <c r="H48" s="3">
-        <v>21100</v>
+        <v>19900</v>
       </c>
       <c r="I48" s="3">
-        <v>19500</v>
+        <v>18300</v>
       </c>
       <c r="J48" s="3">
-        <v>16400</v>
+        <v>15400</v>
       </c>
       <c r="K48" s="3">
         <v>14500</v>
@@ -2104,25 +2104,25 @@
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>85400</v>
+        <v>80300</v>
       </c>
       <c r="E49" s="3">
-        <v>84000</v>
+        <v>79000</v>
       </c>
       <c r="F49" s="3">
-        <v>82200</v>
+        <v>77300</v>
       </c>
       <c r="G49" s="3">
-        <v>78000</v>
+        <v>73400</v>
       </c>
       <c r="H49" s="3">
-        <v>69400</v>
+        <v>65200</v>
       </c>
       <c r="I49" s="3">
-        <v>58200</v>
+        <v>54700</v>
       </c>
       <c r="J49" s="3">
-        <v>58200</v>
+        <v>54700</v>
       </c>
       <c r="K49" s="3">
         <v>55300</v>
@@ -2218,7 +2218,7 @@
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
@@ -2227,16 +2227,16 @@
         <v>900</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>45</v>
@@ -2294,25 +2294,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>242900</v>
+        <v>228400</v>
       </c>
       <c r="E54" s="3">
-        <v>227800</v>
+        <v>214200</v>
       </c>
       <c r="F54" s="3">
-        <v>213300</v>
+        <v>200600</v>
       </c>
       <c r="G54" s="3">
-        <v>200800</v>
+        <v>188800</v>
       </c>
       <c r="H54" s="3">
-        <v>180200</v>
+        <v>169500</v>
       </c>
       <c r="I54" s="3">
-        <v>105000</v>
+        <v>98700</v>
       </c>
       <c r="J54" s="3">
-        <v>99900</v>
+        <v>94000</v>
       </c>
       <c r="K54" s="3">
         <v>93300</v>
@@ -2364,25 +2364,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E57" s="3">
         <v>33500</v>
       </c>
-      <c r="E57" s="3">
-        <v>35600</v>
-      </c>
       <c r="F57" s="3">
-        <v>32300</v>
+        <v>30400</v>
       </c>
       <c r="G57" s="3">
-        <v>33500</v>
+        <v>31500</v>
       </c>
       <c r="H57" s="3">
-        <v>23800</v>
+        <v>22400</v>
       </c>
       <c r="I57" s="3">
-        <v>10000</v>
+        <v>9400</v>
       </c>
       <c r="J57" s="3">
-        <v>8400</v>
+        <v>7900</v>
       </c>
       <c r="K57" s="3">
         <v>6000</v>
@@ -2402,25 +2402,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28800</v>
+        <v>27100</v>
       </c>
       <c r="E58" s="3">
-        <v>28000</v>
+        <v>26300</v>
       </c>
       <c r="F58" s="3">
-        <v>22700</v>
+        <v>21300</v>
       </c>
       <c r="G58" s="3">
-        <v>16800</v>
+        <v>15800</v>
       </c>
       <c r="H58" s="3">
-        <v>4000</v>
+        <v>3700</v>
       </c>
       <c r="I58" s="3">
         <v>700</v>
       </c>
       <c r="J58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K58" s="3">
         <v>4200</v>
@@ -2440,13 +2440,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="E59" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="F59" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>45</v>
@@ -2478,25 +2478,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68300</v>
+        <v>64200</v>
       </c>
       <c r="E60" s="3">
-        <v>68500</v>
+        <v>64400</v>
       </c>
       <c r="F60" s="3">
-        <v>59300</v>
+        <v>55800</v>
       </c>
       <c r="G60" s="3">
-        <v>50300</v>
+        <v>47300</v>
       </c>
       <c r="H60" s="3">
-        <v>27800</v>
+        <v>26100</v>
       </c>
       <c r="I60" s="3">
-        <v>10700</v>
+        <v>10100</v>
       </c>
       <c r="J60" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="K60" s="3">
         <v>10200</v>
@@ -2516,25 +2516,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20700</v>
+        <v>19400</v>
       </c>
       <c r="E61" s="3">
-        <v>10800</v>
+        <v>10100</v>
       </c>
       <c r="F61" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="G61" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="H61" s="3">
-        <v>12100</v>
+        <v>11300</v>
       </c>
       <c r="I61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J61" s="3">
         <v>1200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1300</v>
       </c>
       <c r="K61" s="3">
         <v>1200</v>
@@ -2563,13 +2563,13 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="H62" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="I62" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -2706,25 +2706,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>96200</v>
+        <v>90400</v>
       </c>
       <c r="E66" s="3">
-        <v>86400</v>
+        <v>81200</v>
       </c>
       <c r="F66" s="3">
-        <v>76100</v>
+        <v>71600</v>
       </c>
       <c r="G66" s="3">
-        <v>69100</v>
+        <v>65000</v>
       </c>
       <c r="H66" s="3">
-        <v>49600</v>
+        <v>46600</v>
       </c>
       <c r="I66" s="3">
-        <v>19100</v>
+        <v>17900</v>
       </c>
       <c r="J66" s="3">
-        <v>15900</v>
+        <v>14900</v>
       </c>
       <c r="K66" s="3">
         <v>16600</v>
@@ -2912,25 +2912,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44900</v>
+        <v>-42200</v>
       </c>
       <c r="E72" s="3">
-        <v>-49700</v>
+        <v>-46700</v>
       </c>
       <c r="F72" s="3">
-        <v>-53800</v>
+        <v>-50600</v>
       </c>
       <c r="G72" s="3">
-        <v>-52700</v>
+        <v>-49500</v>
       </c>
       <c r="H72" s="3">
-        <v>-51800</v>
+        <v>-48700</v>
       </c>
       <c r="I72" s="3">
-        <v>-53600</v>
+        <v>-50400</v>
       </c>
       <c r="J72" s="3">
-        <v>-54400</v>
+        <v>-51200</v>
       </c>
       <c r="K72" s="3">
         <v>-54300</v>
@@ -3064,25 +3064,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>146700</v>
+        <v>138000</v>
       </c>
       <c r="E76" s="3">
-        <v>141400</v>
+        <v>133000</v>
       </c>
       <c r="F76" s="3">
-        <v>137200</v>
+        <v>129000</v>
       </c>
       <c r="G76" s="3">
-        <v>131700</v>
+        <v>123800</v>
       </c>
       <c r="H76" s="3">
-        <v>130600</v>
+        <v>122800</v>
       </c>
       <c r="I76" s="3">
-        <v>86000</v>
+        <v>80800</v>
       </c>
       <c r="J76" s="3">
-        <v>84100</v>
+        <v>79100</v>
       </c>
       <c r="K76" s="3">
         <v>76600</v>
@@ -3183,10 +3183,10 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E81" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F81" s="3">
         <v>-900</v>
@@ -3195,13 +3195,13 @@
         <v>-500</v>
       </c>
       <c r="H81" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I81" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J81" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K81" s="3">
         <v>500</v>
@@ -3243,7 +3243,7 @@
         <v>700</v>
       </c>
       <c r="F83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G83" s="3">
         <v>500</v>
@@ -3252,7 +3252,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -3471,19 +3471,19 @@
         <v>600</v>
       </c>
       <c r="F89" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="G89" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H89" s="3">
         <v>600</v>
       </c>
       <c r="I89" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="J89" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K89" s="3">
         <v>1800</v>
@@ -3522,10 +3522,10 @@
         <v>-1200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G91" s="3">
         <v>-600</v>
@@ -3633,25 +3633,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10100</v>
+        <v>-9500</v>
       </c>
       <c r="E94" s="3">
-        <v>-3000</v>
+        <v>-2800</v>
       </c>
       <c r="F94" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="G94" s="3">
-        <v>-6500</v>
+        <v>-6100</v>
       </c>
       <c r="H94" s="3">
-        <v>-4000</v>
+        <v>-3800</v>
       </c>
       <c r="I94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1900</v>
       </c>
       <c r="K94" s="3">
         <v>1600</v>
@@ -3839,25 +3839,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>11500</v>
+        <v>10800</v>
       </c>
       <c r="E100" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="F100" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G100" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="H100" s="3">
-        <v>52200</v>
+        <v>49000</v>
       </c>
       <c r="I100" s="3">
         <v>300</v>
       </c>
       <c r="J100" s="3">
-        <v>-4000</v>
+        <v>-3700</v>
       </c>
       <c r="K100" s="3">
         <v>7900</v>
@@ -3877,13 +3877,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E101" s="3">
         <v>500</v>
       </c>
       <c r="F101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="G101" s="3">
         <v>-300</v>
@@ -3915,25 +3915,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="E102" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F102" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="G102" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H102" s="3">
-        <v>48900</v>
+        <v>46000</v>
       </c>
       <c r="I102" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J102" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="K102" s="3">
         <v>11400</v>

--- a/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27400</v>
+        <v>27900</v>
       </c>
       <c r="E8" s="3">
-        <v>25100</v>
+        <v>26500</v>
       </c>
       <c r="F8" s="3">
-        <v>23000</v>
+        <v>24200</v>
       </c>
       <c r="G8" s="3">
-        <v>17800</v>
+        <v>22100</v>
       </c>
       <c r="H8" s="3">
-        <v>13000</v>
+        <v>17100</v>
       </c>
       <c r="I8" s="3">
-        <v>9500</v>
+        <v>12600</v>
       </c>
       <c r="J8" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K8" s="3">
         <v>7800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15500</v>
+        <v>15700</v>
       </c>
       <c r="E9" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="F9" s="3">
-        <v>12400</v>
+        <v>14300</v>
       </c>
       <c r="G9" s="3">
-        <v>10700</v>
+        <v>12000</v>
       </c>
       <c r="H9" s="3">
-        <v>7500</v>
+        <v>10300</v>
       </c>
       <c r="I9" s="3">
-        <v>5100</v>
+        <v>7200</v>
       </c>
       <c r="J9" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="E10" s="3">
-        <v>10300</v>
+        <v>11500</v>
       </c>
       <c r="F10" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="3">
-        <v>7100</v>
+        <v>10200</v>
       </c>
       <c r="H10" s="3">
-        <v>5500</v>
+        <v>6900</v>
       </c>
       <c r="I10" s="3">
-        <v>4500</v>
+        <v>5300</v>
       </c>
       <c r="J10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,19 +867,20 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -890,10 +904,13 @@
         <v>100</v>
       </c>
       <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,8 +947,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -939,37 +959,40 @@
         <v>-600</v>
       </c>
       <c r="E14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
-        <v>800</v>
-      </c>
       <c r="H14" s="3">
+        <v>700</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-100</v>
       </c>
       <c r="K14" s="3">
         <v>-100</v>
       </c>
       <c r="L14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>22300</v>
+        <v>23400</v>
       </c>
       <c r="E17" s="3">
-        <v>19400</v>
+        <v>21500</v>
       </c>
       <c r="F17" s="3">
-        <v>20300</v>
+        <v>18700</v>
       </c>
       <c r="G17" s="3">
-        <v>16500</v>
+        <v>19600</v>
       </c>
       <c r="H17" s="3">
-        <v>10500</v>
+        <v>15900</v>
       </c>
       <c r="I17" s="3">
-        <v>7900</v>
+        <v>10100</v>
       </c>
       <c r="J17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="E18" s="3">
-        <v>5700</v>
+        <v>5000</v>
       </c>
       <c r="F18" s="3">
-        <v>2600</v>
+        <v>5500</v>
       </c>
       <c r="G18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3">
-        <v>1700</v>
-      </c>
       <c r="J18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1900</v>
-      </c>
       <c r="G20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6800</v>
+        <v>4100</v>
       </c>
       <c r="E21" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="F21" s="3">
-        <v>1700</v>
+        <v>6000</v>
       </c>
       <c r="G21" s="3">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="H21" s="3">
-        <v>2600</v>
+        <v>1000</v>
       </c>
       <c r="I21" s="3">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="J21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-14400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1225,84 +1265,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>6100</v>
+        <v>3300</v>
       </c>
       <c r="E23" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="F23" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-14500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1700</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="F24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4500</v>
+        <v>2300</v>
       </c>
       <c r="E26" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="F26" s="3">
-        <v>-900</v>
+        <v>4100</v>
       </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>-800</v>
       </c>
       <c r="H26" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-14500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="3">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="F27" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>1800</v>
-      </c>
       <c r="I27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J27" s="3">
         <v>900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>1900</v>
-      </c>
       <c r="G32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="E33" s="3">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="F33" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>1800</v>
-      </c>
       <c r="I33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J33" s="3">
         <v>900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="E35" s="3">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="F35" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>1800</v>
-      </c>
       <c r="I35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J35" s="3">
         <v>900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>63700</v>
+        <v>59800</v>
       </c>
       <c r="E41" s="3">
-        <v>60400</v>
+        <v>61500</v>
       </c>
       <c r="F41" s="3">
-        <v>56500</v>
+        <v>58300</v>
       </c>
       <c r="G41" s="3">
-        <v>60200</v>
+        <v>54500</v>
       </c>
       <c r="H41" s="3">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="I41" s="3">
-        <v>11700</v>
+        <v>55800</v>
       </c>
       <c r="J41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K41" s="3">
         <v>10900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1865,165 +1955,180 @@
         <v>100</v>
       </c>
       <c r="M42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>21000</v>
+        <v>31900</v>
       </c>
       <c r="E43" s="3">
-        <v>14300</v>
+        <v>20300</v>
       </c>
       <c r="F43" s="3">
-        <v>14600</v>
+        <v>13700</v>
       </c>
       <c r="G43" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="H43" s="3">
-        <v>12100</v>
+        <v>14000</v>
       </c>
       <c r="I43" s="3">
-        <v>6100</v>
+        <v>11700</v>
       </c>
       <c r="J43" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>26100</v>
+        <v>35000</v>
       </c>
       <c r="E44" s="3">
-        <v>24300</v>
+        <v>25200</v>
       </c>
       <c r="F44" s="3">
-        <v>17900</v>
+        <v>23400</v>
       </c>
       <c r="G44" s="3">
-        <v>13700</v>
+        <v>17300</v>
       </c>
       <c r="H44" s="3">
-        <v>11500</v>
+        <v>13200</v>
       </c>
       <c r="I44" s="3">
-        <v>4700</v>
+        <v>11100</v>
       </c>
       <c r="J44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K44" s="3">
         <v>5500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>3200</v>
       </c>
       <c r="L44" s="3">
         <v>3200</v>
       </c>
       <c r="M44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="E45" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F45" s="3">
-        <v>7700</v>
+        <v>8400</v>
       </c>
       <c r="G45" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>120200</v>
+        <v>136100</v>
       </c>
       <c r="E46" s="3">
-        <v>107800</v>
+        <v>115900</v>
       </c>
       <c r="F46" s="3">
-        <v>96800</v>
+        <v>103900</v>
       </c>
       <c r="G46" s="3">
-        <v>89800</v>
+        <v>93400</v>
       </c>
       <c r="H46" s="3">
-        <v>82600</v>
+        <v>86600</v>
       </c>
       <c r="I46" s="3">
-        <v>23900</v>
+        <v>79600</v>
       </c>
       <c r="J46" s="3">
+        <v>23000</v>
+      </c>
+      <c r="K46" s="3">
         <v>22100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2037,19 +2142,19 @@
         <v>700</v>
       </c>
       <c r="G47" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3">
         <v>1000</v>
       </c>
       <c r="I47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J47" s="3">
         <v>900</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -2058,86 +2163,95 @@
         <v>200</v>
       </c>
       <c r="N47" s="3">
+        <v>200</v>
+      </c>
+      <c r="O47" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>26700</v>
+        <v>26300</v>
       </c>
       <c r="E48" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="F48" s="3">
-        <v>24900</v>
+        <v>24700</v>
       </c>
       <c r="G48" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="H48" s="3">
-        <v>19900</v>
+        <v>22900</v>
       </c>
       <c r="I48" s="3">
-        <v>18300</v>
+        <v>19200</v>
       </c>
       <c r="J48" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K48" s="3">
         <v>15400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>80300</v>
+        <v>79200</v>
       </c>
       <c r="E49" s="3">
-        <v>79000</v>
+        <v>77400</v>
       </c>
       <c r="F49" s="3">
-        <v>77300</v>
+        <v>76200</v>
       </c>
       <c r="G49" s="3">
-        <v>73400</v>
+        <v>74500</v>
       </c>
       <c r="H49" s="3">
-        <v>65200</v>
+        <v>70800</v>
       </c>
       <c r="I49" s="3">
+        <v>62900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K49" s="3">
         <v>54700</v>
       </c>
-      <c r="J49" s="3">
-        <v>54700</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>48800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>51700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>53200</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2212,19 +2329,22 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
-        <v>1100</v>
-      </c>
       <c r="F52" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G52" s="3">
         <v>800</v>
@@ -2238,8 +2358,8 @@
       <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>45</v>
+      <c r="K52" s="3">
+        <v>800</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>45</v>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>228400</v>
+        <v>243000</v>
       </c>
       <c r="E54" s="3">
-        <v>214200</v>
+        <v>220300</v>
       </c>
       <c r="F54" s="3">
-        <v>200600</v>
+        <v>206600</v>
       </c>
       <c r="G54" s="3">
-        <v>188800</v>
+        <v>193500</v>
       </c>
       <c r="H54" s="3">
-        <v>169500</v>
+        <v>182100</v>
       </c>
       <c r="I54" s="3">
-        <v>98700</v>
+        <v>163500</v>
       </c>
       <c r="J54" s="3">
+        <v>95200</v>
+      </c>
+      <c r="K54" s="3">
         <v>94000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,104 +2488,111 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>31500</v>
+        <v>37600</v>
       </c>
       <c r="E57" s="3">
-        <v>33500</v>
+        <v>30400</v>
       </c>
       <c r="F57" s="3">
+        <v>32300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>29300</v>
+      </c>
+      <c r="H57" s="3">
         <v>30400</v>
       </c>
-      <c r="G57" s="3">
-        <v>31500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>22400</v>
-      </c>
       <c r="I57" s="3">
-        <v>9400</v>
+        <v>21600</v>
       </c>
       <c r="J57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27100</v>
+        <v>37800</v>
       </c>
       <c r="E58" s="3">
-        <v>26300</v>
+        <v>26100</v>
       </c>
       <c r="F58" s="3">
-        <v>21300</v>
+        <v>25400</v>
       </c>
       <c r="G58" s="3">
-        <v>15800</v>
+        <v>20100</v>
       </c>
       <c r="H58" s="3">
-        <v>3700</v>
+        <v>15300</v>
       </c>
       <c r="I58" s="3">
-        <v>700</v>
+        <v>3600</v>
       </c>
       <c r="J58" s="3">
         <v>700</v>
       </c>
       <c r="K58" s="3">
-        <v>4200</v>
+        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>4200</v>
       </c>
       <c r="M58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N58" s="3">
         <v>4500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5700</v>
+        <v>6600</v>
       </c>
       <c r="E59" s="3">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="F59" s="3">
-        <v>4500</v>
-      </c>
-      <c r="G59" s="3" t="s">
+        <v>4400</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>45</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>45</v>
@@ -2463,122 +2600,131 @@
       <c r="K59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M59" s="3">
         <v>3100</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64200</v>
+        <v>82000</v>
       </c>
       <c r="E60" s="3">
-        <v>64400</v>
+        <v>61900</v>
       </c>
       <c r="F60" s="3">
-        <v>55800</v>
+        <v>62100</v>
       </c>
       <c r="G60" s="3">
-        <v>47300</v>
+        <v>53800</v>
       </c>
       <c r="H60" s="3">
-        <v>26100</v>
+        <v>45700</v>
       </c>
       <c r="I60" s="3">
-        <v>10100</v>
+        <v>25200</v>
       </c>
       <c r="J60" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K60" s="3">
         <v>8600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19400</v>
+        <v>18100</v>
       </c>
       <c r="E61" s="3">
-        <v>10100</v>
+        <v>18700</v>
       </c>
       <c r="F61" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="G61" s="3">
-        <v>7000</v>
+        <v>9300</v>
       </c>
       <c r="H61" s="3">
-        <v>11300</v>
+        <v>6800</v>
       </c>
       <c r="I61" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J61" s="3">
         <v>1100</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1200</v>
       </c>
       <c r="K61" s="3">
         <v>1200</v>
       </c>
       <c r="L61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>4800</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="I62" s="3">
-        <v>1500</v>
+        <v>3900</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M62" s="3">
         <v>100</v>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>90400</v>
+        <v>106900</v>
       </c>
       <c r="E66" s="3">
-        <v>81200</v>
+        <v>87200</v>
       </c>
       <c r="F66" s="3">
-        <v>71600</v>
+        <v>78300</v>
       </c>
       <c r="G66" s="3">
-        <v>65000</v>
+        <v>69000</v>
       </c>
       <c r="H66" s="3">
-        <v>46600</v>
+        <v>62700</v>
       </c>
       <c r="I66" s="3">
-        <v>17900</v>
+        <v>45000</v>
       </c>
       <c r="J66" s="3">
+        <v>17300</v>
+      </c>
+      <c r="K66" s="3">
         <v>14900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42200</v>
+        <v>-38700</v>
       </c>
       <c r="E72" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-48800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-51200</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-56900</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-59900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-46700</v>
       </c>
-      <c r="F72" s="3">
-        <v>-50600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-49500</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-48700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-50400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-51200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-54300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-56900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-59900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-46700</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>138000</v>
+        <v>136100</v>
       </c>
       <c r="E76" s="3">
-        <v>133000</v>
+        <v>133100</v>
       </c>
       <c r="F76" s="3">
-        <v>129000</v>
+        <v>128300</v>
       </c>
       <c r="G76" s="3">
-        <v>123800</v>
+        <v>124400</v>
       </c>
       <c r="H76" s="3">
-        <v>122800</v>
+        <v>119400</v>
       </c>
       <c r="I76" s="3">
-        <v>80800</v>
+        <v>118500</v>
       </c>
       <c r="J76" s="3">
+        <v>78000</v>
+      </c>
+      <c r="K76" s="3">
         <v>79100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>76600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>62400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>65200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="E81" s="3">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="F81" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>1800</v>
-      </c>
       <c r="I81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J81" s="3">
         <v>900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
-        <v>700</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
-        <v>1600</v>
-      </c>
       <c r="G89" s="3">
-        <v>2800</v>
+        <v>800</v>
       </c>
       <c r="H89" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
-        <v>2200</v>
-      </c>
       <c r="J89" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K89" s="3">
         <v>2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1800</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-1200</v>
       </c>
       <c r="M89" s="3">
         <v>-1200</v>
       </c>
       <c r="N89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3522,37 +3743,40 @@
         <v>-1200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2000</v>
+        <v>-1100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2200</v>
+        <v>-1900</v>
       </c>
       <c r="G91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>-1400</v>
       </c>
       <c r="L91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9500</v>
+        <v>-10300</v>
       </c>
       <c r="E94" s="3">
-        <v>-2800</v>
+        <v>-9200</v>
       </c>
       <c r="F94" s="3">
-        <v>-7200</v>
+        <v>-2700</v>
       </c>
       <c r="G94" s="3">
-        <v>-6100</v>
+        <v>-7000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3800</v>
+        <v>-5900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1700</v>
+        <v>-3600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,67 +4076,73 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10800</v>
+        <v>7500</v>
       </c>
       <c r="E100" s="3">
-        <v>5400</v>
+        <v>10400</v>
       </c>
       <c r="F100" s="3">
-        <v>3000</v>
+        <v>5200</v>
       </c>
       <c r="G100" s="3">
-        <v>6200</v>
+        <v>2900</v>
       </c>
       <c r="H100" s="3">
-        <v>49000</v>
+        <v>5900</v>
       </c>
       <c r="I100" s="3">
+        <v>47300</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-3700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2000</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -3904,47 +4153,53 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
-        <v>3700</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-3700</v>
-      </c>
       <c r="G102" s="3">
-        <v>2500</v>
+        <v>-3500</v>
       </c>
       <c r="H102" s="3">
-        <v>46000</v>
+        <v>2400</v>
       </c>
       <c r="I102" s="3">
+        <v>44300</v>
+      </c>
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INCR.U_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,219 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>27900</v>
+        <v>29200</v>
       </c>
       <c r="E8" s="3">
-        <v>26500</v>
+        <v>29000</v>
       </c>
       <c r="F8" s="3">
-        <v>24200</v>
+        <v>27600</v>
       </c>
       <c r="G8" s="3">
-        <v>22100</v>
+        <v>26200</v>
       </c>
       <c r="H8" s="3">
-        <v>17100</v>
+        <v>24000</v>
       </c>
       <c r="I8" s="3">
+        <v>21900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K8" s="3">
         <v>12600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15700</v>
+        <v>19500</v>
       </c>
       <c r="E9" s="3">
-        <v>14900</v>
+        <v>18700</v>
       </c>
       <c r="F9" s="3">
-        <v>14300</v>
+        <v>15500</v>
       </c>
       <c r="G9" s="3">
-        <v>12000</v>
+        <v>14800</v>
       </c>
       <c r="H9" s="3">
-        <v>10300</v>
+        <v>14100</v>
       </c>
       <c r="I9" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K9" s="3">
         <v>7200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12300</v>
+        <v>9700</v>
       </c>
       <c r="E10" s="3">
-        <v>11500</v>
+        <v>10300</v>
       </c>
       <c r="F10" s="3">
-        <v>10000</v>
+        <v>12100</v>
       </c>
       <c r="G10" s="3">
-        <v>10200</v>
+        <v>11400</v>
       </c>
       <c r="H10" s="3">
-        <v>6900</v>
+        <v>9800</v>
       </c>
       <c r="I10" s="3">
+        <v>10100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>3800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +893,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,10 +910,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -907,10 +934,16 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -950,49 +983,61 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1097,104 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>23400</v>
+        <v>27500</v>
       </c>
       <c r="E17" s="3">
-        <v>21500</v>
+        <v>30000</v>
       </c>
       <c r="F17" s="3">
-        <v>18700</v>
+        <v>23200</v>
       </c>
       <c r="G17" s="3">
-        <v>19600</v>
+        <v>21200</v>
       </c>
       <c r="H17" s="3">
+        <v>18500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>7600</v>
+      </c>
+      <c r="M17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P17" s="3">
         <v>15900</v>
       </c>
-      <c r="I17" s="3">
-        <v>10100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>7600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>5800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>15900</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F18" s="3">
         <v>4500</v>
       </c>
-      <c r="E18" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H18" s="3">
         <v>5500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1300</v>
       </c>
       <c r="I18" s="3">
         <v>2500</v>
       </c>
       <c r="J18" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-14600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-9800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1145,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1154,81 +1221,93 @@
         <v>-1200</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>4100</v>
+        <v>1400</v>
       </c>
       <c r="E21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G21" s="3">
         <v>6500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2100</v>
       </c>
       <c r="K21" s="3">
         <v>2500</v>
       </c>
       <c r="L21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2500</v>
+      </c>
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-14400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,90 +1347,108 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
-        <v>5900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>5400</v>
-      </c>
       <c r="G23" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1300</v>
       </c>
       <c r="G24" s="3">
         <v>1600</v>
       </c>
       <c r="H24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4300</v>
       </c>
-      <c r="F26" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-14500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-14500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1637,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1646,81 +1785,93 @@
         <v>1200</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-14500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-14500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>59800</v>
+        <v>29200</v>
       </c>
       <c r="E41" s="3">
-        <v>61500</v>
+        <v>63900</v>
       </c>
       <c r="F41" s="3">
-        <v>58300</v>
+        <v>59100</v>
       </c>
       <c r="G41" s="3">
-        <v>54500</v>
+        <v>60800</v>
       </c>
       <c r="H41" s="3">
-        <v>58000</v>
+        <v>57700</v>
       </c>
       <c r="I41" s="3">
+        <v>53900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K41" s="3">
         <v>55800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>10900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>13900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>8700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1958,115 +2137,133 @@
         <v>100</v>
       </c>
       <c r="N42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O42" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>31900</v>
+        <v>46500</v>
       </c>
       <c r="E43" s="3">
-        <v>20300</v>
+        <v>36900</v>
       </c>
       <c r="F43" s="3">
-        <v>13700</v>
+        <v>31600</v>
       </c>
       <c r="G43" s="3">
-        <v>14100</v>
+        <v>20100</v>
       </c>
       <c r="H43" s="3">
-        <v>14000</v>
+        <v>13600</v>
       </c>
       <c r="I43" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>13900</v>
+      </c>
+      <c r="K43" s="3">
         <v>11700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>4700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>35000</v>
+        <v>34700</v>
       </c>
       <c r="E44" s="3">
-        <v>25200</v>
+        <v>33000</v>
       </c>
       <c r="F44" s="3">
-        <v>23400</v>
+        <v>34700</v>
       </c>
       <c r="G44" s="3">
-        <v>17300</v>
+        <v>24900</v>
       </c>
       <c r="H44" s="3">
-        <v>13200</v>
+        <v>23200</v>
       </c>
       <c r="I44" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K44" s="3">
         <v>11100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>9300</v>
+        <v>6500</v>
       </c>
       <c r="E45" s="3">
-        <v>8900</v>
+        <v>5600</v>
       </c>
       <c r="F45" s="3">
-        <v>8400</v>
+        <v>9200</v>
       </c>
       <c r="G45" s="3">
-        <v>7400</v>
+        <v>8800</v>
       </c>
       <c r="H45" s="3">
-        <v>1200</v>
+        <v>8300</v>
       </c>
       <c r="I45" s="3">
-        <v>900</v>
+        <v>7300</v>
       </c>
       <c r="J45" s="3">
         <v>1200</v>
@@ -2075,68 +2272,80 @@
         <v>900</v>
       </c>
       <c r="L45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>900</v>
+      </c>
+      <c r="N45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>136100</v>
+        <v>117000</v>
       </c>
       <c r="E46" s="3">
-        <v>115900</v>
+        <v>139400</v>
       </c>
       <c r="F46" s="3">
-        <v>103900</v>
+        <v>134600</v>
       </c>
       <c r="G46" s="3">
-        <v>93400</v>
+        <v>114700</v>
       </c>
       <c r="H46" s="3">
-        <v>86600</v>
+        <v>102800</v>
       </c>
       <c r="I46" s="3">
+        <v>92300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K46" s="3">
         <v>79600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>23000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>22100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>23300</v>
-      </c>
-      <c r="M46" s="3">
-        <v>13400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>10400</v>
       </c>
       <c r="O46" s="3">
         <v>13400</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>10400</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>13400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>700</v>
+        <v>11700</v>
       </c>
       <c r="E47" s="3">
-        <v>700</v>
+        <v>11700</v>
       </c>
       <c r="F47" s="3">
         <v>700</v>
@@ -2145,113 +2354,131 @@
         <v>700</v>
       </c>
       <c r="H47" s="3">
+        <v>700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>700</v>
+      </c>
+      <c r="J47" s="3">
         <v>1000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>900</v>
-      </c>
-      <c r="J47" s="3">
-        <v>900</v>
       </c>
       <c r="K47" s="3">
         <v>900</v>
       </c>
       <c r="L47" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="M47" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="N47" s="3">
         <v>200</v>
       </c>
       <c r="O47" s="3">
+        <v>200</v>
+      </c>
+      <c r="P47" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q47" s="3">
         <v>12600</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>26300</v>
+        <v>27800</v>
       </c>
       <c r="E48" s="3">
-        <v>25700</v>
+        <v>28300</v>
       </c>
       <c r="F48" s="3">
-        <v>24700</v>
+        <v>26000</v>
       </c>
       <c r="G48" s="3">
-        <v>24000</v>
+        <v>25500</v>
       </c>
       <c r="H48" s="3">
-        <v>22900</v>
+        <v>24400</v>
       </c>
       <c r="I48" s="3">
+        <v>23800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K48" s="3">
         <v>19200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>17700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>15400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>14500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>12600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>11800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>79200</v>
+        <v>78100</v>
       </c>
       <c r="E49" s="3">
-        <v>77400</v>
+        <v>78100</v>
       </c>
       <c r="F49" s="3">
-        <v>76200</v>
+        <v>78400</v>
       </c>
       <c r="G49" s="3">
-        <v>74500</v>
+        <v>76600</v>
       </c>
       <c r="H49" s="3">
-        <v>70800</v>
+        <v>75400</v>
       </c>
       <c r="I49" s="3">
+        <v>73700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K49" s="3">
         <v>62900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>52800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>54700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>55300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>48800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>51700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>53200</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2332,25 +2565,31 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>800</v>
-      </c>
-      <c r="H52" s="3">
-        <v>800</v>
       </c>
       <c r="I52" s="3">
         <v>800</v>
@@ -2361,11 +2600,11 @@
       <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>45</v>
+      <c r="L52" s="3">
+        <v>800</v>
+      </c>
+      <c r="M52" s="3">
+        <v>800</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>45</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>243000</v>
+        <v>240600</v>
       </c>
       <c r="E54" s="3">
-        <v>220300</v>
+        <v>263200</v>
       </c>
       <c r="F54" s="3">
-        <v>206600</v>
+        <v>240300</v>
       </c>
       <c r="G54" s="3">
-        <v>193500</v>
+        <v>217900</v>
       </c>
       <c r="H54" s="3">
-        <v>182100</v>
+        <v>204300</v>
       </c>
       <c r="I54" s="3">
+        <v>191400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>180100</v>
+      </c>
+      <c r="K54" s="3">
         <v>163500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>95200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>94000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>93300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>74900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>74000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>89400</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2748,292 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37600</v>
+        <v>40900</v>
       </c>
       <c r="E57" s="3">
-        <v>30400</v>
+        <v>47900</v>
       </c>
       <c r="F57" s="3">
-        <v>32300</v>
+        <v>37200</v>
       </c>
       <c r="G57" s="3">
-        <v>29300</v>
+        <v>30000</v>
       </c>
       <c r="H57" s="3">
-        <v>30400</v>
+        <v>32000</v>
       </c>
       <c r="I57" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>30100</v>
+      </c>
+      <c r="K57" s="3">
         <v>21600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>9000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>6000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>37800</v>
+        <v>21100</v>
       </c>
       <c r="E58" s="3">
-        <v>26100</v>
+        <v>35200</v>
       </c>
       <c r="F58" s="3">
-        <v>25400</v>
+        <v>37400</v>
       </c>
       <c r="G58" s="3">
-        <v>20100</v>
+        <v>25800</v>
       </c>
       <c r="H58" s="3">
-        <v>15300</v>
+        <v>25100</v>
       </c>
       <c r="I58" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6600</v>
+        <v>2200</v>
       </c>
       <c r="E59" s="3">
-        <v>5500</v>
+        <v>2800</v>
       </c>
       <c r="F59" s="3">
-        <v>4400</v>
+        <v>6500</v>
       </c>
       <c r="G59" s="3">
-        <v>4400</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>45</v>
+        <v>5400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>4300</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>45</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M59" s="3">
-        <v>3100</v>
+      <c r="M59" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P59" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>82000</v>
+        <v>64100</v>
       </c>
       <c r="E60" s="3">
-        <v>61900</v>
+        <v>85900</v>
       </c>
       <c r="F60" s="3">
-        <v>62100</v>
+        <v>81100</v>
       </c>
       <c r="G60" s="3">
-        <v>53800</v>
+        <v>61200</v>
       </c>
       <c r="H60" s="3">
-        <v>45700</v>
+        <v>61400</v>
       </c>
       <c r="I60" s="3">
+        <v>53200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K60" s="3">
         <v>25200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>8600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18100</v>
+        <v>32500</v>
       </c>
       <c r="E61" s="3">
-        <v>18700</v>
+        <v>33700</v>
       </c>
       <c r="F61" s="3">
-        <v>9800</v>
+        <v>17900</v>
       </c>
       <c r="G61" s="3">
-        <v>9300</v>
+        <v>18500</v>
       </c>
       <c r="H61" s="3">
-        <v>6800</v>
+        <v>9700</v>
       </c>
       <c r="I61" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K61" s="3">
         <v>10900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>4600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>106900</v>
+        <v>102400</v>
       </c>
       <c r="E66" s="3">
-        <v>87200</v>
+        <v>125500</v>
       </c>
       <c r="F66" s="3">
-        <v>78300</v>
+        <v>105700</v>
       </c>
       <c r="G66" s="3">
-        <v>69000</v>
+        <v>86300</v>
       </c>
       <c r="H66" s="3">
-        <v>62700</v>
+        <v>77500</v>
       </c>
       <c r="I66" s="3">
+        <v>68300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K66" s="3">
         <v>45000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>14900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>12600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8300</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38700</v>
+        <v>-35900</v>
       </c>
       <c r="E72" s="3">
-        <v>-40700</v>
+        <v>-35900</v>
       </c>
       <c r="F72" s="3">
-        <v>-45000</v>
+        <v>-38300</v>
       </c>
       <c r="G72" s="3">
-        <v>-48800</v>
+        <v>-40300</v>
       </c>
       <c r="H72" s="3">
-        <v>-47800</v>
+        <v>-44500</v>
       </c>
       <c r="I72" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-47200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-47000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-48600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-51200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-54300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-56900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-59900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-46700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>136100</v>
+        <v>138200</v>
       </c>
       <c r="E76" s="3">
-        <v>133100</v>
+        <v>137700</v>
       </c>
       <c r="F76" s="3">
-        <v>128300</v>
+        <v>134600</v>
       </c>
       <c r="G76" s="3">
-        <v>124400</v>
+        <v>131600</v>
       </c>
       <c r="H76" s="3">
-        <v>119400</v>
+        <v>126900</v>
       </c>
       <c r="I76" s="3">
+        <v>123100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>118100</v>
+      </c>
+      <c r="K76" s="3">
         <v>118500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>78000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>79100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>76600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>62400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>65200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>81100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-14500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3825,57 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E83" s="3">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="F83" s="3">
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>600</v>
+      </c>
+      <c r="I83" s="3">
         <v>900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>500</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
-        <v>800</v>
-      </c>
-      <c r="H89" s="3">
-        <v>3500</v>
-      </c>
-      <c r="I89" s="3">
-        <v>600</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1200</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1100</v>
+        <v>-4700</v>
       </c>
       <c r="F91" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10300</v>
+        <v>-4000</v>
       </c>
       <c r="E94" s="3">
-        <v>-9200</v>
+        <v>-17200</v>
       </c>
       <c r="F94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-5900</v>
-      </c>
       <c r="I94" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-4600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,76 +4564,88 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F100" s="3">
         <v>7500</v>
       </c>
-      <c r="E100" s="3">
-        <v>10400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>5200</v>
-      </c>
       <c r="G100" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H100" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>5900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>47300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>7900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4156,50 +4653,62 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>3400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>44300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>11400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-7500</v>
       </c>
     </row>
